--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W15_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W15_H50_B16.xlsx
@@ -502,23 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5531914893617021</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>0.551829268292683</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9945054945054945</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5531914893617021</v>
+        <v>0.5501519756838906</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7123287671232876</v>
+        <v>0.7098039215686275</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4772036474164134</v>
+        <v>0.4832826747720365</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1295897212557014</v>
+        <v>0.1062171800249372</v>
       </c>
       <c r="J2" t="n">
-        <v>1684.434517147999</v>
+        <v>1295.317038676167</v>
       </c>
       <c r="K2" t="n">
-        <v>3696217.03264781</v>
+        <v>2042855.643201462</v>
       </c>
       <c r="L2" t="n">
-        <v>1922.55481915284</v>
+        <v>1429.285011186174</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3050302697058155</v>
+        <v>0.6158984110387465</v>
       </c>
     </row>
   </sheetData>
